--- a/excel/일산술집.xlsx
+++ b/excel/일산술집.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,64 +468,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>반야관 밤리단길점</t>
+          <t>이자카야 이로</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 대산로11번길 14-4 1층</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1320-6688</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>야키토리 도쿠리야</t>
+          <t>모꼬지</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 38</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['토', '18:00 - 01:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1487-8902</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 32-34 라페스타C 1층 126호</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['- 공휴일 전날은 02:00까지 영업합니다.']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0507-1432-3412</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
@@ -574,22 +574,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 백석로86번길 50 1층</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1362-5484</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 대산로11번길 14-4 1층</t>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1320-6688</t>
+          <t>0507-1325-7904</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1362-8220</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,2902 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0507-1434-5201</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>조금 취했어</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0507-1434-5201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>코너</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0507-1434-5201</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>치즈 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0507-1434-5201</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>이태리회관</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로187번길 26 1층 치즈</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '12:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0507-1327-8527</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>하나기</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>철길부산집 일산라페스타점</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>러프와일드 밤리단길점</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>미미주점 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>부부0325</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>안주가 일산라페점</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 경의로 25-53 204동 102호 이태리회관</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0507-1312-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>이자카야 이로</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0507-1414-5689</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>모꼬지</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>리파인 일산</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>구각 밤리단길 본점</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>운도</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>반야관 밤리단길점</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>코주방</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무'], ['일(7/9)', '휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>정발가옥 밤리단길본점</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/09-07/10']]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0507-1325-7904</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>이자카야 이로</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>노상가는술집</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>조금 취했어</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>코너</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>치즈 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>이태리회관</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>하나기</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>철길부산집 일산라페스타점</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>러프와일드 밤리단길점</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>미미주점 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>부부0325</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>안주가 일산라페점</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 대산로11번길 40-2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0507-1362-8220</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>제니스 산전수전</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>토모루</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>칸쿤낭만비어 풍동점</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>최상위 밤리단길점</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>수라포차</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>손씨포차</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>청연</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>요인</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>용용선생 일산라페스타점</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>퓨전포차주접N</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>한남동그집 일산탄현점</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>육회바른연어 장항점</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>금별맥주 백석점</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>야키토리 탉</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>철길부산집 파주야당점</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>금별맥주 일산라페스타점</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>핀트 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>착각 백석동</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>야당샹젤리제</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>바 보이드</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>비스트로온</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>전류 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>레드제플린</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>아누보 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>지느러미</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>범맥주 파주야당점</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 일산두산위브더제니스스퀘어 1층</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0507-1396-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>밀회관 파주야당역점</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>경기 파주시 소리천로 25 2층</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수(7/12)', '휴무'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>031-941-7531</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>웨스턴돔 곤조</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>화류</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>한신포차 라페스타점</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>추억의 길가 포장마차</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>임가주방 벨라시타점</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>쉼, 어묵 그리고 한잔 술 백석점</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>집앞</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1225바 일산밤리단길점</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>떼아트르</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>이노루</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>밤새맥주 일산본점</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>생활맥주 일산주엽점</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 중앙로1261번길 59 로얄프라자 1층 102호</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0507-1414-7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>홀리데이펍 일산본점</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 무궁화로 31-17 엔담프라자 403호</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '19:00 - 06:00']]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0507-1324-6825</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>백석뭉티기</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>남오토코 일산점</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>울룰루펍</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>푸른술집할라 일산라페스타점</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 일산탄현점</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>브루웍스 백석점</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>라운지비</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>토모루 풍동</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>사람들 벨라시타점</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>노노스탄테</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>동범이네포차</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>스트릿763</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산동구 위시티2로11번길 16 그라스프라자 1층</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0507-1481-0906</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>하루비어 탄현위브더제니스점</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 00:30', '00:00 라스트오더'], ['화', '16:00 - 00:30', '00:00 라스트오더'], ['수', '16:00 - 00:30', '00:00 라스트오더'], ['목', '16:00 - 00:30', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:30 라스트오더'], ['토', '15:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>명태작업실 중산점</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>정갈</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 00:30', '00:00 라스트오더'], ['화', '16:00 - 00:30', '00:00 라스트오더'], ['수', '16:00 - 00:30', '00:00 라스트오더'], ['목', '16:00 - 00:30', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:30 라스트오더'], ['토', '15:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>백스비어 일산탄현점</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>뉴욕야시장 일산웨스턴돔점</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 00:30', '00:00 라스트오더'], ['화', '16:00 - 00:30', '00:00 라스트오더'], ['수', '16:00 - 00:30', '00:00 라스트오더'], ['목', '16:00 - 00:30', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:30 라스트오더'], ['토', '15:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>다옴</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>산카이 일산본점</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 00:30', '00:00 라스트오더'], ['화', '16:00 - 00:30', '00:00 라스트오더'], ['수', '16:00 - 00:30', '00:00 라스트오더'], ['목', '16:00 - 00:30', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:30 라스트오더'], ['토', '15:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>만만한포차</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>경기 고양시 일산서구 일현로 97-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0507-1375-0092</t>
         </is>
       </c>
     </row>
